--- a/data/pca/factorExposure/factorExposure_2019-06-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1170198082186581</v>
+        <v>-0.07819348578421313</v>
       </c>
       <c r="C2">
-        <v>0.01390215219360484</v>
+        <v>-0.01721844905869229</v>
       </c>
       <c r="D2">
-        <v>-0.09268917225794335</v>
+        <v>0.03411563501898428</v>
       </c>
       <c r="E2">
-        <v>0.06740961743425219</v>
+        <v>-0.1362978094325024</v>
       </c>
       <c r="F2">
-        <v>-0.0543666985770052</v>
+        <v>0.007482418075635772</v>
       </c>
       <c r="G2">
-        <v>0.05846605661052192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.0771403285058017</v>
+      </c>
+      <c r="H2">
+        <v>0.07643401756194947</v>
+      </c>
+      <c r="I2">
+        <v>-0.07621072095751835</v>
+      </c>
+      <c r="J2">
+        <v>-0.04156886299640439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2014931706658593</v>
+        <v>-0.1575483910766347</v>
       </c>
       <c r="C3">
-        <v>-0.08792562557806868</v>
+        <v>-0.1023167160288066</v>
       </c>
       <c r="D3">
-        <v>-0.1330771326668111</v>
+        <v>-0.04555612065053199</v>
       </c>
       <c r="E3">
-        <v>0.2868235301233912</v>
+        <v>-0.3591199052786671</v>
       </c>
       <c r="F3">
-        <v>0.03728710402816889</v>
+        <v>0.117269137856691</v>
       </c>
       <c r="G3">
-        <v>0.3146437200731366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.02125011223999555</v>
+      </c>
+      <c r="H3">
+        <v>0.2866546282731077</v>
+      </c>
+      <c r="I3">
+        <v>-0.1763653607668283</v>
+      </c>
+      <c r="J3">
+        <v>0.06344493404935374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09324505999757601</v>
+        <v>-0.07259315017424917</v>
       </c>
       <c r="C4">
-        <v>-0.01911626574124704</v>
+        <v>-0.03171597590453525</v>
       </c>
       <c r="D4">
-        <v>-0.05683065332726549</v>
+        <v>0.02237876862391687</v>
       </c>
       <c r="E4">
-        <v>0.07356997018300497</v>
+        <v>-0.08916930675996569</v>
       </c>
       <c r="F4">
-        <v>-0.03430128591220454</v>
+        <v>0.05336025777216578</v>
       </c>
       <c r="G4">
-        <v>0.02409151102954912</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.034135123652976</v>
+      </c>
+      <c r="H4">
+        <v>0.04120690342599842</v>
+      </c>
+      <c r="I4">
+        <v>-0.01891546195754789</v>
+      </c>
+      <c r="J4">
+        <v>0.03958457659523758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.009557563140902278</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.004874749993237033</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.002044809573960349</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.00694757760217394</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.0007907478740957921</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01370394795396047</v>
+      </c>
+      <c r="H6">
+        <v>0.002076655704825364</v>
+      </c>
+      <c r="I6">
+        <v>-0.001841240759731122</v>
+      </c>
+      <c r="J6">
+        <v>0.001174123425882662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04096843417096587</v>
+        <v>-0.03406122004181228</v>
       </c>
       <c r="C7">
-        <v>-0.003769792048163727</v>
+        <v>-0.01553074834070593</v>
       </c>
       <c r="D7">
-        <v>-0.06199593664729276</v>
+        <v>0.01672707968887295</v>
       </c>
       <c r="E7">
-        <v>0.04295488467413673</v>
+        <v>-0.06183656919491492</v>
       </c>
       <c r="F7">
-        <v>0.05806053085925976</v>
+        <v>0.02716097106092149</v>
       </c>
       <c r="G7">
-        <v>0.01994450240806037</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01821088367897798</v>
+      </c>
+      <c r="H7">
+        <v>0.04722094871734264</v>
+      </c>
+      <c r="I7">
+        <v>0.002396836796740297</v>
+      </c>
+      <c r="J7">
+        <v>0.0267657839260486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.03786245101102486</v>
+        <v>-0.02955323757769644</v>
       </c>
       <c r="C8">
-        <v>-0.03443276969066594</v>
+        <v>-0.03735781501540157</v>
       </c>
       <c r="D8">
-        <v>-0.03726451568401067</v>
+        <v>0.007420767700681737</v>
       </c>
       <c r="E8">
-        <v>0.0650011593753469</v>
+        <v>-0.08038584633684864</v>
       </c>
       <c r="F8">
-        <v>0.006153382108420414</v>
+        <v>0.04488577879275223</v>
       </c>
       <c r="G8">
-        <v>0.0424020800447675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.004191257451526087</v>
+      </c>
+      <c r="H8">
+        <v>0.05552338179800815</v>
+      </c>
+      <c r="I8">
+        <v>-0.03899967669181578</v>
+      </c>
+      <c r="J8">
+        <v>0.01714656703010627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08270214884216649</v>
+        <v>-0.06182084503331882</v>
       </c>
       <c r="C9">
-        <v>-0.02055358924791614</v>
+        <v>-0.03150354077925484</v>
       </c>
       <c r="D9">
-        <v>-0.06482786078093522</v>
+        <v>0.02453541057016579</v>
       </c>
       <c r="E9">
-        <v>0.06009362421921041</v>
+        <v>-0.08418651022551905</v>
       </c>
       <c r="F9">
-        <v>-0.01881183390615875</v>
+        <v>0.05764290550848083</v>
       </c>
       <c r="G9">
-        <v>0.02111996881040407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02268263760573504</v>
+      </c>
+      <c r="H9">
+        <v>0.03521448420494492</v>
+      </c>
+      <c r="I9">
+        <v>-0.01025030710130504</v>
+      </c>
+      <c r="J9">
+        <v>0.006527423371973169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.02268525879512705</v>
+        <v>-0.005563982230189636</v>
       </c>
       <c r="C10">
-        <v>0.1618166160595234</v>
+        <v>0.1568801081570162</v>
       </c>
       <c r="D10">
-        <v>-0.01920533799612862</v>
+        <v>-0.01836679669701362</v>
       </c>
       <c r="E10">
-        <v>0.04773605303803544</v>
+        <v>-0.05333508671622762</v>
       </c>
       <c r="F10">
-        <v>0.006377283850134339</v>
+        <v>0.006070558950184556</v>
       </c>
       <c r="G10">
-        <v>-0.01613550588311939</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01125170563058511</v>
+      </c>
+      <c r="H10">
+        <v>-0.02265682102721437</v>
+      </c>
+      <c r="I10">
+        <v>-0.1121825610183488</v>
+      </c>
+      <c r="J10">
+        <v>0.05493217653070738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05917961629521586</v>
+        <v>-0.05088906985930262</v>
       </c>
       <c r="C11">
-        <v>0.001662460966802286</v>
+        <v>-0.01683325923622423</v>
       </c>
       <c r="D11">
-        <v>-0.0165575196705338</v>
+        <v>0.004455239947019767</v>
       </c>
       <c r="E11">
-        <v>0.04333924361178883</v>
+        <v>-0.04868322029308692</v>
       </c>
       <c r="F11">
-        <v>0.004963535284623045</v>
+        <v>0.002821902415592112</v>
       </c>
       <c r="G11">
-        <v>-0.01320319402925057</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.0007609559896609672</v>
+      </c>
+      <c r="H11">
+        <v>0.02109656939835824</v>
+      </c>
+      <c r="I11">
+        <v>0.01043348337251544</v>
+      </c>
+      <c r="J11">
+        <v>-0.004098302156785466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04898017253981856</v>
+        <v>-0.04868630576398052</v>
       </c>
       <c r="C12">
-        <v>-0.002139109916106539</v>
+        <v>-0.01651471149732818</v>
       </c>
       <c r="D12">
-        <v>-0.01224393681666886</v>
+        <v>0.007344494563321939</v>
       </c>
       <c r="E12">
-        <v>0.02267283821813217</v>
+        <v>-0.02626203784432839</v>
       </c>
       <c r="F12">
-        <v>0.009921372399566319</v>
+        <v>0.01859222218047031</v>
       </c>
       <c r="G12">
-        <v>9.558676754402071e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.00363203149371202</v>
+      </c>
+      <c r="H12">
+        <v>0.01116656254177826</v>
+      </c>
+      <c r="I12">
+        <v>0.01812358962645588</v>
+      </c>
+      <c r="J12">
+        <v>-0.006412437719517345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.05567403929312937</v>
+        <v>-0.03841358685735084</v>
       </c>
       <c r="C13">
-        <v>-0.01716073751792664</v>
+        <v>-0.02357199760747971</v>
       </c>
       <c r="D13">
-        <v>-0.04960142669609237</v>
+        <v>0.003558276963151857</v>
       </c>
       <c r="E13">
-        <v>0.1009847583267289</v>
+        <v>-0.1059459392639053</v>
       </c>
       <c r="F13">
-        <v>0.002483828172729191</v>
+        <v>0.006742365139955847</v>
       </c>
       <c r="G13">
-        <v>0.01326600830336392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.001283490659540941</v>
+      </c>
+      <c r="H13">
+        <v>0.05329784989533183</v>
+      </c>
+      <c r="I13">
+        <v>-0.0354153566211109</v>
+      </c>
+      <c r="J13">
+        <v>-0.0200298381820682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03783053242557886</v>
+        <v>-0.02846162918447053</v>
       </c>
       <c r="C14">
-        <v>-0.006937148758255699</v>
+        <v>-0.01615558667967417</v>
       </c>
       <c r="D14">
-        <v>-0.02796075627445977</v>
+        <v>0.0203168354970801</v>
       </c>
       <c r="E14">
-        <v>0.01299425898110533</v>
+        <v>-0.03787780456799671</v>
       </c>
       <c r="F14">
-        <v>0.006954981186092811</v>
+        <v>0.01923309727330427</v>
       </c>
       <c r="G14">
-        <v>0.02838024668976204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01272747983955771</v>
+      </c>
+      <c r="H14">
+        <v>0.06120598911785705</v>
+      </c>
+      <c r="I14">
+        <v>-0.02462527609870143</v>
+      </c>
+      <c r="J14">
+        <v>0.008959681937992649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.05198940593356764</v>
+        <v>-0.04281973461000346</v>
       </c>
       <c r="C16">
-        <v>-0.01575536651870463</v>
+        <v>-0.02551098730176904</v>
       </c>
       <c r="D16">
-        <v>-0.004087201607659188</v>
+        <v>-0.002010318572785915</v>
       </c>
       <c r="E16">
-        <v>0.04949494851532269</v>
+        <v>-0.04601889513699108</v>
       </c>
       <c r="F16">
-        <v>0.005810702697989711</v>
+        <v>0.006677929515838905</v>
       </c>
       <c r="G16">
-        <v>-0.003304574308398376</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005354545674547012</v>
+      </c>
+      <c r="H16">
+        <v>0.02155679547513005</v>
+      </c>
+      <c r="I16">
+        <v>0.0121490661639657</v>
+      </c>
+      <c r="J16">
+        <v>0.0003883883512048733</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.04290926711089056</v>
+        <v>-0.04505867574380769</v>
       </c>
       <c r="C19">
-        <v>-0.02993450363692054</v>
+        <v>-0.03487225200463115</v>
       </c>
       <c r="D19">
-        <v>-0.04102969896305664</v>
+        <v>0.006184669520341678</v>
       </c>
       <c r="E19">
-        <v>0.07309775065430252</v>
+        <v>-0.09527354000068863</v>
       </c>
       <c r="F19">
-        <v>0.01186310798173283</v>
+        <v>0.02849622096622817</v>
       </c>
       <c r="G19">
-        <v>0.02520162398178983</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.008324557116352662</v>
+      </c>
+      <c r="H19">
+        <v>0.07269639920404972</v>
+      </c>
+      <c r="I19">
+        <v>-0.07229506826074052</v>
+      </c>
+      <c r="J19">
+        <v>-0.009353192928902023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03177237811139613</v>
+        <v>-0.01662021256154995</v>
       </c>
       <c r="C20">
-        <v>-0.0342959096235719</v>
+        <v>-0.03415790355819205</v>
       </c>
       <c r="D20">
-        <v>-0.03959705134418159</v>
+        <v>0.01115470645601816</v>
       </c>
       <c r="E20">
-        <v>0.06500332040617758</v>
+        <v>-0.07527188129558576</v>
       </c>
       <c r="F20">
-        <v>0.02190863938733123</v>
+        <v>0.03303390892287265</v>
       </c>
       <c r="G20">
-        <v>0.03739176722500694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01279345178891542</v>
+      </c>
+      <c r="H20">
+        <v>0.07781802907580057</v>
+      </c>
+      <c r="I20">
+        <v>-0.02483535334905561</v>
+      </c>
+      <c r="J20">
+        <v>0.02188856096499051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03498451441400582</v>
+        <v>-0.01538616374688502</v>
       </c>
       <c r="C21">
-        <v>-0.01918034853839943</v>
+        <v>-0.02685581597921684</v>
       </c>
       <c r="D21">
-        <v>-0.04103208843874022</v>
+        <v>-0.01137487819247289</v>
       </c>
       <c r="E21">
-        <v>0.08746740646102516</v>
+        <v>-0.08364922092045401</v>
       </c>
       <c r="F21">
-        <v>-0.02188499755254756</v>
+        <v>0.02437258545905527</v>
       </c>
       <c r="G21">
-        <v>0.01346612602842112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01235110503532402</v>
+      </c>
+      <c r="H21">
+        <v>0.04088052540034331</v>
+      </c>
+      <c r="I21">
+        <v>-0.0123325382475108</v>
+      </c>
+      <c r="J21">
+        <v>-0.02619497263544326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04614360873429073</v>
+        <v>-0.04067412616020543</v>
       </c>
       <c r="C24">
-        <v>-0.01012955264863255</v>
+        <v>-0.01599547699885104</v>
       </c>
       <c r="D24">
-        <v>-0.02363840741933827</v>
+        <v>0.004627404805731074</v>
       </c>
       <c r="E24">
-        <v>0.05024149578231756</v>
+        <v>-0.04930201046607396</v>
       </c>
       <c r="F24">
-        <v>0.009662771298994538</v>
+        <v>0.006594124556786095</v>
       </c>
       <c r="G24">
-        <v>-0.01048834142143534</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01235105549445719</v>
+      </c>
+      <c r="H24">
+        <v>0.01611151499623338</v>
+      </c>
+      <c r="I24">
+        <v>0.009523961589719984</v>
+      </c>
+      <c r="J24">
+        <v>0.001798205001125252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.05031717386196877</v>
+        <v>-0.04396089688468588</v>
       </c>
       <c r="C25">
-        <v>0.001916432106766085</v>
+        <v>-0.01655230504259455</v>
       </c>
       <c r="D25">
-        <v>-0.01660791309368349</v>
+        <v>0.004072254337307659</v>
       </c>
       <c r="E25">
-        <v>0.03953103356011561</v>
+        <v>-0.04690737966951359</v>
       </c>
       <c r="F25">
-        <v>0.006698861529236081</v>
+        <v>0.009596516932738965</v>
       </c>
       <c r="G25">
-        <v>-0.0157835425047865</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.006131037776708253</v>
+      </c>
+      <c r="H25">
+        <v>0.008912061401018453</v>
+      </c>
+      <c r="I25">
+        <v>0.01337484072606659</v>
+      </c>
+      <c r="J25">
+        <v>-0.009667635123648217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.002237365701583339</v>
+        <v>-0.006930821975257004</v>
       </c>
       <c r="C26">
-        <v>-0.0197381896592937</v>
+        <v>-0.0203176801578066</v>
       </c>
       <c r="D26">
-        <v>-0.03204547336078532</v>
+        <v>-0.004427244016189936</v>
       </c>
       <c r="E26">
-        <v>0.04531888191538791</v>
+        <v>-0.05789225957331764</v>
       </c>
       <c r="F26">
-        <v>-0.006025587652597128</v>
+        <v>-0.002725228003777264</v>
       </c>
       <c r="G26">
-        <v>0.01062783555114011</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.00312272266943177</v>
+      </c>
+      <c r="H26">
+        <v>0.03523864165684142</v>
+      </c>
+      <c r="I26">
+        <v>0.001354992947062231</v>
+      </c>
+      <c r="J26">
+        <v>0.009731061085892265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1084511436838702</v>
+        <v>-0.08886053669057546</v>
       </c>
       <c r="C27">
-        <v>-0.003926582638454882</v>
+        <v>-0.01757911248702224</v>
       </c>
       <c r="D27">
-        <v>-0.07487836233023622</v>
+        <v>0.02789830898399088</v>
       </c>
       <c r="E27">
-        <v>0.09265932543353871</v>
+        <v>-0.09104833101767761</v>
       </c>
       <c r="F27">
-        <v>0.01101382685329109</v>
+        <v>0.04324387147960611</v>
       </c>
       <c r="G27">
-        <v>-0.01774954310447378</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.003076641157670608</v>
+      </c>
+      <c r="H27">
+        <v>0.01137756436819909</v>
+      </c>
+      <c r="I27">
+        <v>-0.001277516392236047</v>
+      </c>
+      <c r="J27">
+        <v>0.01624411066414108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.02731905796644553</v>
+        <v>-0.01252761299379093</v>
       </c>
       <c r="C28">
-        <v>0.2321440509113512</v>
+        <v>0.223776129007541</v>
       </c>
       <c r="D28">
-        <v>-0.001007272080503751</v>
+        <v>-0.02623208001911236</v>
       </c>
       <c r="E28">
-        <v>0.04034949323986651</v>
+        <v>-0.04242864713954599</v>
       </c>
       <c r="F28">
-        <v>-0.0003775548953746578</v>
+        <v>0.003223165802084737</v>
       </c>
       <c r="G28">
-        <v>-0.03866194492702581</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01498053410758114</v>
+      </c>
+      <c r="H28">
+        <v>-0.04579646755765472</v>
+      </c>
+      <c r="I28">
+        <v>-0.1476266033370486</v>
+      </c>
+      <c r="J28">
+        <v>0.08274264028091532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.01832965855239338</v>
+        <v>-0.01917190658044506</v>
       </c>
       <c r="C29">
-        <v>-0.01961540903472943</v>
+        <v>-0.02265468291523528</v>
       </c>
       <c r="D29">
-        <v>-0.03284897689902953</v>
+        <v>0.01607019641007449</v>
       </c>
       <c r="E29">
-        <v>0.02797876403029191</v>
+        <v>-0.03765557673139875</v>
       </c>
       <c r="F29">
-        <v>-0.002393010632114466</v>
+        <v>0.0293082402410943</v>
       </c>
       <c r="G29">
-        <v>0.03352721216888518</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01668881314897125</v>
+      </c>
+      <c r="H29">
+        <v>0.05930846812560134</v>
+      </c>
+      <c r="I29">
+        <v>-0.01251960650056546</v>
+      </c>
+      <c r="J29">
+        <v>0.01345065306959</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1037170415165973</v>
+        <v>-0.1029094034658836</v>
       </c>
       <c r="C30">
-        <v>0.003070471910870721</v>
+        <v>-0.0273896590999462</v>
       </c>
       <c r="D30">
-        <v>-0.07038674230754571</v>
+        <v>0.03010916483203855</v>
       </c>
       <c r="E30">
-        <v>0.1019966831676948</v>
+        <v>-0.1127059120911082</v>
       </c>
       <c r="F30">
-        <v>0.01587108360318557</v>
+        <v>0.01071194313416508</v>
       </c>
       <c r="G30">
-        <v>-0.08093373171369163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.02530448367358155</v>
+      </c>
+      <c r="H30">
+        <v>0.009880398719065361</v>
+      </c>
+      <c r="I30">
+        <v>0.03115547456056779</v>
+      </c>
+      <c r="J30">
+        <v>-0.02245836448878679</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05192958875233799</v>
+        <v>-0.05678322095492257</v>
       </c>
       <c r="C31">
-        <v>-0.01146508481697238</v>
+        <v>-0.01734992634175582</v>
       </c>
       <c r="D31">
-        <v>-0.01627245035661991</v>
+        <v>0.01471425789251919</v>
       </c>
       <c r="E31">
-        <v>-0.008615762428209923</v>
+        <v>-0.01918640216299731</v>
       </c>
       <c r="F31">
-        <v>-0.008123657779768843</v>
+        <v>-0.01793951335292078</v>
       </c>
       <c r="G31">
-        <v>0.01701856714512485</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.0333708666241557</v>
+      </c>
+      <c r="H31">
+        <v>0.04895268869479536</v>
+      </c>
+      <c r="I31">
+        <v>-0.01820228747979819</v>
+      </c>
+      <c r="J31">
+        <v>0.01583166331897792</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06420542619955086</v>
+        <v>-0.04540968684673619</v>
       </c>
       <c r="C32">
-        <v>-0.02145786949541104</v>
+        <v>-0.04571809119861825</v>
       </c>
       <c r="D32">
-        <v>-0.06333210725787704</v>
+        <v>0.01951851892851172</v>
       </c>
       <c r="E32">
-        <v>0.09719819609939685</v>
+        <v>-0.0966492956213991</v>
       </c>
       <c r="F32">
-        <v>0.0390136397685664</v>
+        <v>0.03495064475494088</v>
       </c>
       <c r="G32">
-        <v>-0.001567453704663687</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01969597627143095</v>
+      </c>
+      <c r="H32">
+        <v>0.05241894794576962</v>
+      </c>
+      <c r="I32">
+        <v>-0.03295422510103103</v>
+      </c>
+      <c r="J32">
+        <v>-0.02624770037081769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06483545174105261</v>
+        <v>-0.05795695757699548</v>
       </c>
       <c r="C33">
-        <v>-0.02572484214546598</v>
+        <v>-0.04167191223795651</v>
       </c>
       <c r="D33">
-        <v>-0.05000007390424061</v>
+        <v>0.003606548318817977</v>
       </c>
       <c r="E33">
-        <v>0.06045401035233342</v>
+        <v>-0.08890970619212531</v>
       </c>
       <c r="F33">
-        <v>-0.01540898680161524</v>
+        <v>0.009764209487958572</v>
       </c>
       <c r="G33">
-        <v>0.003469556661669124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01188390782163511</v>
+      </c>
+      <c r="H33">
+        <v>0.05178674521499198</v>
+      </c>
+      <c r="I33">
+        <v>0.008514292057450629</v>
+      </c>
+      <c r="J33">
+        <v>-0.003608719466721296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.0454030113989239</v>
+        <v>-0.04220561243646559</v>
       </c>
       <c r="C34">
-        <v>-0.01206880165940729</v>
+        <v>-0.02182692783570134</v>
       </c>
       <c r="D34">
-        <v>-0.006864320058615447</v>
+        <v>0.008013603380765667</v>
       </c>
       <c r="E34">
-        <v>0.0270757886525606</v>
+        <v>-0.0387485883284386</v>
       </c>
       <c r="F34">
-        <v>0.007312872655577562</v>
+        <v>0.008409228773478442</v>
       </c>
       <c r="G34">
-        <v>0.00603412661638904</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.002668007937220606</v>
+      </c>
+      <c r="H34">
+        <v>0.02516770357907657</v>
+      </c>
+      <c r="I34">
+        <v>0.005124609131406132</v>
+      </c>
+      <c r="J34">
+        <v>-0.01369002391955678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.008270674255790138</v>
+        <v>-0.01204758366939956</v>
       </c>
       <c r="C36">
-        <v>0.007112774531410401</v>
+        <v>-0.001635811049476368</v>
       </c>
       <c r="D36">
-        <v>-0.01687715010503037</v>
+        <v>0.004792677277245808</v>
       </c>
       <c r="E36">
-        <v>0.02358186932525329</v>
+        <v>-0.03055185291850424</v>
       </c>
       <c r="F36">
-        <v>-0.001401472714756374</v>
+        <v>0.01069867422479001</v>
       </c>
       <c r="G36">
-        <v>-0.001692424722768979</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01001428422241266</v>
+      </c>
+      <c r="H36">
+        <v>0.03504428977468663</v>
+      </c>
+      <c r="I36">
+        <v>-0.01455061663308128</v>
+      </c>
+      <c r="J36">
+        <v>-0.007323023375310281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.0512118783815235</v>
+        <v>-0.02954462780939495</v>
       </c>
       <c r="C38">
-        <v>-0.004780749373100303</v>
+        <v>-0.01017865509819831</v>
       </c>
       <c r="D38">
-        <v>-0.03637193846967199</v>
+        <v>0.007152075794966617</v>
       </c>
       <c r="E38">
-        <v>0.01829737820888992</v>
+        <v>-0.04551027093971007</v>
       </c>
       <c r="F38">
-        <v>-0.0006633103426024169</v>
+        <v>0.01908247090037654</v>
       </c>
       <c r="G38">
-        <v>0.01595238751279378</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01587870694966236</v>
+      </c>
+      <c r="H38">
+        <v>0.009760932017685341</v>
+      </c>
+      <c r="I38">
+        <v>-0.007251307867101319</v>
+      </c>
+      <c r="J38">
+        <v>-0.01395505791654567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07556069738420142</v>
+        <v>-0.06304719204454756</v>
       </c>
       <c r="C39">
-        <v>-0.007912557540525857</v>
+        <v>-0.02882398455451007</v>
       </c>
       <c r="D39">
-        <v>-0.02584158375488031</v>
+        <v>0.01901068447579278</v>
       </c>
       <c r="E39">
-        <v>0.03975931261110349</v>
+        <v>-0.06019715470557083</v>
       </c>
       <c r="F39">
-        <v>-0.006245173546385389</v>
+        <v>-0.0003657126616565354</v>
       </c>
       <c r="G39">
-        <v>-0.01892120288902036</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.004009983231458398</v>
+      </c>
+      <c r="H39">
+        <v>0.02093826257331018</v>
+      </c>
+      <c r="I39">
+        <v>0.02090267616724754</v>
+      </c>
+      <c r="J39">
+        <v>-0.02109407767370585</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.06803210724536002</v>
+        <v>-0.05478882333276547</v>
       </c>
       <c r="C40">
-        <v>-0.02791209745358952</v>
+        <v>-0.0353681065809965</v>
       </c>
       <c r="D40">
-        <v>-0.06096200449631663</v>
+        <v>0.02013271382854466</v>
       </c>
       <c r="E40">
-        <v>0.09679020690535267</v>
+        <v>-0.1128993736425614</v>
       </c>
       <c r="F40">
-        <v>-0.003361321225843728</v>
+        <v>-0.0003776479806319456</v>
       </c>
       <c r="G40">
-        <v>0.04924112501752929</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.007616026284616528</v>
+      </c>
+      <c r="H40">
+        <v>0.07842496782375313</v>
+      </c>
+      <c r="I40">
+        <v>-0.0291855363024342</v>
+      </c>
+      <c r="J40">
+        <v>-0.007047972724022037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.002547153109766165</v>
+        <v>-9.795622443462031e-05</v>
       </c>
       <c r="C41">
-        <v>-0.006250204692186499</v>
+        <v>-0.008832435160041441</v>
       </c>
       <c r="D41">
-        <v>-0.02254107226200289</v>
+        <v>0.003439981681338777</v>
       </c>
       <c r="E41">
-        <v>0.01182817916763951</v>
+        <v>-0.01849608285203381</v>
       </c>
       <c r="F41">
-        <v>-0.02167120448747565</v>
+        <v>0.007667620283603661</v>
       </c>
       <c r="G41">
-        <v>0.02299175238488636</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02802326690623224</v>
+      </c>
+      <c r="H41">
+        <v>0.03993451870454669</v>
+      </c>
+      <c r="I41">
+        <v>-0.01782330332785441</v>
+      </c>
+      <c r="J41">
+        <v>0.0246357012312532</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1673641555201768</v>
+        <v>-0.24285445157643</v>
       </c>
       <c r="C42">
-        <v>-0.142084134809471</v>
+        <v>-0.1519535601813531</v>
       </c>
       <c r="D42">
-        <v>0.8156810022922955</v>
+        <v>-0.9143209825834443</v>
       </c>
       <c r="E42">
-        <v>0.4627549722218285</v>
+        <v>0.1306353218744082</v>
       </c>
       <c r="F42">
-        <v>-0.09990883856459207</v>
+        <v>-0.1836462523543166</v>
       </c>
       <c r="G42">
-        <v>-0.0941188026965043</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.00731480619032851</v>
+      </c>
+      <c r="H42">
+        <v>-0.01272965617664975</v>
+      </c>
+      <c r="I42">
+        <v>-0.03390414269341754</v>
+      </c>
+      <c r="J42">
+        <v>0.04100180597127318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008002373180389181</v>
+        <v>-0.0005411260085131115</v>
       </c>
       <c r="C43">
-        <v>-0.009624179064396507</v>
+        <v>-0.01348927006091307</v>
       </c>
       <c r="D43">
-        <v>-0.0342452239699043</v>
+        <v>0.005351149629307377</v>
       </c>
       <c r="E43">
-        <v>0.02311375194476061</v>
+        <v>-0.0319788224719795</v>
       </c>
       <c r="F43">
-        <v>0.01035208148797375</v>
+        <v>0.005251400047110233</v>
       </c>
       <c r="G43">
-        <v>0.0222939687938379</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.006203308940512521</v>
+      </c>
+      <c r="H43">
+        <v>0.03611252910800523</v>
+      </c>
+      <c r="I43">
+        <v>-0.009530735348176181</v>
+      </c>
+      <c r="J43">
+        <v>0.01885586441266508</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04314433042849748</v>
+        <v>-0.02818971660635039</v>
       </c>
       <c r="C44">
-        <v>-0.03059806160812059</v>
+        <v>-0.03522331945498505</v>
       </c>
       <c r="D44">
-        <v>-0.07085926029532313</v>
+        <v>0.0004939314890663381</v>
       </c>
       <c r="E44">
-        <v>0.09119315701107245</v>
+        <v>-0.1213196919786113</v>
       </c>
       <c r="F44">
-        <v>-0.0370992999328381</v>
+        <v>0.02923303618716457</v>
       </c>
       <c r="G44">
-        <v>0.08562956662350484</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.0277735077739223</v>
+      </c>
+      <c r="H44">
+        <v>0.1112893718945992</v>
+      </c>
+      <c r="I44">
+        <v>-0.04321799203459158</v>
+      </c>
+      <c r="J44">
+        <v>0.002546694295853317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02058983939986749</v>
+        <v>-0.01949089795175092</v>
       </c>
       <c r="C46">
-        <v>-0.01533187500127471</v>
+        <v>-0.02758365059361483</v>
       </c>
       <c r="D46">
-        <v>-0.03948378906522056</v>
+        <v>0.01641466675509556</v>
       </c>
       <c r="E46">
-        <v>0.01384462708680537</v>
+        <v>-0.04919763362658133</v>
       </c>
       <c r="F46">
-        <v>-0.01804220828572172</v>
+        <v>0.01246973930608371</v>
       </c>
       <c r="G46">
-        <v>0.02929368692094834</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01709996707160789</v>
+      </c>
+      <c r="H46">
+        <v>0.06147221365401914</v>
+      </c>
+      <c r="I46">
+        <v>-0.01166430605357155</v>
+      </c>
+      <c r="J46">
+        <v>0.03061382665327455</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.07768835360045026</v>
+        <v>-0.08633018663348957</v>
       </c>
       <c r="C47">
-        <v>-0.004056923340007814</v>
+        <v>-0.01517916499622685</v>
       </c>
       <c r="D47">
-        <v>-0.01809595162290362</v>
+        <v>0.02125373224804763</v>
       </c>
       <c r="E47">
-        <v>-0.01045962047401314</v>
+        <v>-0.00637690644519018</v>
       </c>
       <c r="F47">
-        <v>-0.003316282963335901</v>
+        <v>-0.002357258849672539</v>
       </c>
       <c r="G47">
-        <v>0.03686488720873452</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.02796395752750446</v>
+      </c>
+      <c r="H47">
+        <v>0.07096966766529038</v>
+      </c>
+      <c r="I47">
+        <v>-0.02240558429999234</v>
+      </c>
+      <c r="J47">
+        <v>0.0242031607361588</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.0101411569022783</v>
+        <v>-0.01284904877589607</v>
       </c>
       <c r="C48">
-        <v>-0.01694917964958905</v>
+        <v>-0.01953430635025167</v>
       </c>
       <c r="D48">
-        <v>-0.02836809662505503</v>
+        <v>0.004464432854315573</v>
       </c>
       <c r="E48">
-        <v>0.0284271004773392</v>
+        <v>-0.04090427368057179</v>
       </c>
       <c r="F48">
-        <v>-0.00528948794499482</v>
+        <v>0.01095398130383367</v>
       </c>
       <c r="G48">
-        <v>0.001747171904034992</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.002734307076390934</v>
+      </c>
+      <c r="H48">
+        <v>0.02427387778615079</v>
+      </c>
+      <c r="I48">
+        <v>-0.01226503801557194</v>
+      </c>
+      <c r="J48">
+        <v>0.01050795275174898</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.07364165102810659</v>
+        <v>-0.07932649540717322</v>
       </c>
       <c r="C50">
-        <v>-0.03277442020857555</v>
+        <v>-0.03585489230201416</v>
       </c>
       <c r="D50">
-        <v>-0.01076881788608727</v>
+        <v>0.01773254027644999</v>
       </c>
       <c r="E50">
-        <v>-0.01767756960420429</v>
+        <v>-0.01163851384452256</v>
       </c>
       <c r="F50">
-        <v>-0.01102328268255167</v>
+        <v>-0.005050039898840267</v>
       </c>
       <c r="G50">
-        <v>0.007384830808979874</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.006983490709095323</v>
+      </c>
+      <c r="H50">
+        <v>0.05047362204592049</v>
+      </c>
+      <c r="I50">
+        <v>-0.02122047672390704</v>
+      </c>
+      <c r="J50">
+        <v>-0.007902342004121389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06652202262352362</v>
+        <v>-0.04701279863927341</v>
       </c>
       <c r="C51">
-        <v>0.03096154409377806</v>
+        <v>0.0077431661459554</v>
       </c>
       <c r="D51">
-        <v>-0.06067116508561227</v>
+        <v>0.006467185731732729</v>
       </c>
       <c r="E51">
-        <v>0.05623412606731313</v>
+        <v>-0.1050112339843906</v>
       </c>
       <c r="F51">
-        <v>-0.04325346297507363</v>
+        <v>0.002495246187150106</v>
       </c>
       <c r="G51">
-        <v>0.01682022913924987</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0482295622232736</v>
+      </c>
+      <c r="H51">
+        <v>0.05088315390792979</v>
+      </c>
+      <c r="I51">
+        <v>-0.02950225398647419</v>
+      </c>
+      <c r="J51">
+        <v>0.05887322717845456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1390419936533331</v>
+        <v>-0.1274061926989501</v>
       </c>
       <c r="C53">
-        <v>-0.005945890829278504</v>
+        <v>-0.03358508536477516</v>
       </c>
       <c r="D53">
-        <v>-0.03872882195266313</v>
+        <v>0.04564234808323976</v>
       </c>
       <c r="E53">
-        <v>-0.02282997393659892</v>
+        <v>0.01324091903303062</v>
       </c>
       <c r="F53">
-        <v>-0.008963405453124873</v>
+        <v>-0.007228623483529806</v>
       </c>
       <c r="G53">
-        <v>0.02725557496566296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02925764926255524</v>
+      </c>
+      <c r="H53">
+        <v>0.0144189356333384</v>
+      </c>
+      <c r="I53">
+        <v>0.005376194140077023</v>
+      </c>
+      <c r="J53">
+        <v>0.08756975510092456</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.01904531646965736</v>
+        <v>-0.02092379190732887</v>
       </c>
       <c r="C54">
-        <v>0.006742935253998763</v>
+        <v>-0.00406272770394626</v>
       </c>
       <c r="D54">
-        <v>-0.04818631800389004</v>
+        <v>0.02307275644308829</v>
       </c>
       <c r="E54">
-        <v>0.02136105083731792</v>
+        <v>-0.04503903806447023</v>
       </c>
       <c r="F54">
-        <v>-0.02965057791233321</v>
+        <v>0.02149445291148431</v>
       </c>
       <c r="G54">
-        <v>0.03595316988913952</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03064500852659779</v>
+      </c>
+      <c r="H54">
+        <v>0.06727260556276889</v>
+      </c>
+      <c r="I54">
+        <v>-0.04401563848177546</v>
+      </c>
+      <c r="J54">
+        <v>0.02267594659046488</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09562492446782865</v>
+        <v>-0.1016830674966637</v>
       </c>
       <c r="C55">
-        <v>0.004807772893503337</v>
+        <v>-0.01612222342996116</v>
       </c>
       <c r="D55">
-        <v>-0.03564127073167429</v>
+        <v>0.02915990185351832</v>
       </c>
       <c r="E55">
-        <v>-0.004505389015406828</v>
+        <v>0.01421289067230457</v>
       </c>
       <c r="F55">
-        <v>0.02184199436640756</v>
+        <v>0.03189775398804087</v>
       </c>
       <c r="G55">
-        <v>0.0276662373010805</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.005157440623364431</v>
+      </c>
+      <c r="H55">
+        <v>0.03412601461511252</v>
+      </c>
+      <c r="I55">
+        <v>0.01749666864944875</v>
+      </c>
+      <c r="J55">
+        <v>0.06923294595126636</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.176692475676445</v>
+        <v>-0.1690383719360899</v>
       </c>
       <c r="C56">
-        <v>0.0253091963161133</v>
+        <v>-0.01079315509448751</v>
       </c>
       <c r="D56">
-        <v>-0.04152715309205463</v>
+        <v>0.0886956847018545</v>
       </c>
       <c r="E56">
-        <v>-0.07905556439422988</v>
+        <v>0.06589281263191264</v>
       </c>
       <c r="F56">
-        <v>0.04642943156123212</v>
+        <v>0.004744991457219619</v>
       </c>
       <c r="G56">
-        <v>0.01699273274093615</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.01454026064727335</v>
+      </c>
+      <c r="H56">
+        <v>-0.03056058411236391</v>
+      </c>
+      <c r="I56">
+        <v>0.04901350100607834</v>
+      </c>
+      <c r="J56">
+        <v>0.08125976055802787</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09626018188377082</v>
+        <v>-0.07526778376211417</v>
       </c>
       <c r="C57">
-        <v>-0.01707366715306527</v>
+        <v>-0.02293447046081727</v>
       </c>
       <c r="D57">
-        <v>-0.05187871237671667</v>
+        <v>0.005164333894866941</v>
       </c>
       <c r="E57">
-        <v>0.05919371237474087</v>
+        <v>-0.08376653619412892</v>
       </c>
       <c r="F57">
-        <v>0.00998981179239767</v>
+        <v>0.009748982656638006</v>
       </c>
       <c r="G57">
-        <v>0.0392599304165974</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.00577174318818267</v>
+      </c>
+      <c r="H57">
+        <v>0.05300659604419485</v>
+      </c>
+      <c r="I57">
+        <v>0.0104435917523741</v>
+      </c>
+      <c r="J57">
+        <v>0.01981491768644728</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1735813265832956</v>
+        <v>-0.194410552836137</v>
       </c>
       <c r="C58">
-        <v>0.01185155944256499</v>
+        <v>-0.03779683311379371</v>
       </c>
       <c r="D58">
-        <v>0.0008764801891841688</v>
+        <v>-0.003447060186096731</v>
       </c>
       <c r="E58">
-        <v>0.06929695738143397</v>
+        <v>-0.1384932383354047</v>
       </c>
       <c r="F58">
-        <v>0.07819620376023806</v>
+        <v>-0.01068356746665408</v>
       </c>
       <c r="G58">
-        <v>0.151345813257562</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1519779320189556</v>
+      </c>
+      <c r="H58">
+        <v>0.2909679966754334</v>
+      </c>
+      <c r="I58">
+        <v>-0.1183714405347233</v>
+      </c>
+      <c r="J58">
+        <v>-0.21322454954761</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.01763771944249793</v>
+        <v>-0.01875622571707648</v>
       </c>
       <c r="C59">
-        <v>0.2007868516924923</v>
+        <v>0.1953953615825092</v>
       </c>
       <c r="D59">
-        <v>-0.03900835766302022</v>
+        <v>0.00926845039682709</v>
       </c>
       <c r="E59">
-        <v>0.03402545537198527</v>
+        <v>-0.05688206409770314</v>
       </c>
       <c r="F59">
-        <v>0.005444145600275797</v>
+        <v>-0.01081348689488247</v>
       </c>
       <c r="G59">
-        <v>-0.05008706656124349</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.0004168747432678245</v>
+      </c>
+      <c r="H59">
+        <v>-0.03754277128060092</v>
+      </c>
+      <c r="I59">
+        <v>-0.08084229685829919</v>
+      </c>
+      <c r="J59">
+        <v>0.03158537425080582</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1691289058015551</v>
+        <v>-0.1771368250316732</v>
       </c>
       <c r="C60">
-        <v>0.1196227122047872</v>
+        <v>0.06594549644658319</v>
       </c>
       <c r="D60">
-        <v>-0.1316426073314583</v>
+        <v>0.01813488974992604</v>
       </c>
       <c r="E60">
-        <v>0.144846000633439</v>
+        <v>-0.211382831097721</v>
       </c>
       <c r="F60">
-        <v>-0.0005597143381221611</v>
+        <v>-0.0416923976453292</v>
       </c>
       <c r="G60">
-        <v>-0.1510164882215466</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.06011136328411899</v>
+      </c>
+      <c r="H60">
+        <v>-0.2229287829753132</v>
+      </c>
+      <c r="I60">
+        <v>0.1108608559293398</v>
+      </c>
+      <c r="J60">
+        <v>-0.03611118742769399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.05056884638236017</v>
+        <v>-0.03945545971604038</v>
       </c>
       <c r="C61">
-        <v>-0.002406124632852071</v>
+        <v>-0.01605909017746449</v>
       </c>
       <c r="D61">
-        <v>-0.01720138597139324</v>
+        <v>0.001503709285572211</v>
       </c>
       <c r="E61">
-        <v>0.03918696277836993</v>
+        <v>-0.04608798984657182</v>
       </c>
       <c r="F61">
-        <v>-0.003732332731976436</v>
+        <v>0.001005792394065052</v>
       </c>
       <c r="G61">
-        <v>-0.04005477763546113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.0002073056251002806</v>
+      </c>
+      <c r="H61">
+        <v>0.003661227273085147</v>
+      </c>
+      <c r="I61">
+        <v>0.02531652820481553</v>
+      </c>
+      <c r="J61">
+        <v>-0.03100305716698799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.03366076174434863</v>
+        <v>-0.02695930739296264</v>
       </c>
       <c r="C63">
-        <v>0.007490314293499515</v>
+        <v>-0.01348420653142252</v>
       </c>
       <c r="D63">
-        <v>-0.027597788476144</v>
+        <v>0.009083659956966226</v>
       </c>
       <c r="E63">
-        <v>0.03719761863827343</v>
+        <v>-0.037996762528918</v>
       </c>
       <c r="F63">
-        <v>-0.0008638157769219993</v>
+        <v>0.01020443762086607</v>
       </c>
       <c r="G63">
-        <v>0.01672901161743757</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.001652467083198593</v>
+      </c>
+      <c r="H63">
+        <v>0.04236849811322037</v>
+      </c>
+      <c r="I63">
+        <v>-0.01828539572393352</v>
+      </c>
+      <c r="J63">
+        <v>0.03932222499976703</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.09375226728798312</v>
+        <v>-0.06790959668391634</v>
       </c>
       <c r="C64">
-        <v>-0.002955898849186767</v>
+        <v>-0.02750652614240401</v>
       </c>
       <c r="D64">
-        <v>-0.1184766037655525</v>
+        <v>0.03800891514731335</v>
       </c>
       <c r="E64">
-        <v>0.04285072968769358</v>
+        <v>-0.06678641885394487</v>
       </c>
       <c r="F64">
-        <v>-0.07402077182659073</v>
+        <v>0.06059768118681768</v>
       </c>
       <c r="G64">
-        <v>-0.03231907263259159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06732991220057644</v>
+      </c>
+      <c r="H64">
+        <v>-0.008257323085657891</v>
+      </c>
+      <c r="I64">
+        <v>0.01719282166555127</v>
+      </c>
+      <c r="J64">
+        <v>0.07089945226417731</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01001944196465761</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.005288075839581984</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.00233442945166121</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.005485136039415376</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.002501653930648398</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01394657508418999</v>
+      </c>
+      <c r="H65">
+        <v>-0.0004680816751083856</v>
+      </c>
+      <c r="I65">
+        <v>0.0002325326747640825</v>
+      </c>
+      <c r="J65">
+        <v>0.0005638061119576994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.1000670885689816</v>
+        <v>-0.07585488859756685</v>
       </c>
       <c r="C66">
-        <v>-0.01060279540802101</v>
+        <v>-0.03688740012132685</v>
       </c>
       <c r="D66">
-        <v>-0.08201042231297145</v>
+        <v>0.04045632786202608</v>
       </c>
       <c r="E66">
-        <v>0.04926640001075171</v>
+        <v>-0.08733245597388949</v>
       </c>
       <c r="F66">
-        <v>-0.006411912705221685</v>
+        <v>0.002694810034780875</v>
       </c>
       <c r="G66">
-        <v>-0.01753138773935721</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.003891456354950407</v>
+      </c>
+      <c r="H66">
+        <v>0.02214810433770219</v>
+      </c>
+      <c r="I66">
+        <v>0.0427137940481086</v>
+      </c>
+      <c r="J66">
+        <v>-0.01292630017641685</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.05718570480541773</v>
+        <v>-0.03989409349842062</v>
       </c>
       <c r="C67">
-        <v>0.01668434066083842</v>
+        <v>0.007546576669209183</v>
       </c>
       <c r="D67">
-        <v>-0.02512596861724236</v>
+        <v>0.004152977910043424</v>
       </c>
       <c r="E67">
-        <v>0.01819305259274889</v>
+        <v>-0.0398887684548358</v>
       </c>
       <c r="F67">
-        <v>0.0008441727108450898</v>
+        <v>0.007390036368527111</v>
       </c>
       <c r="G67">
-        <v>0.02074367948354704</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02257403414639982</v>
+      </c>
+      <c r="H67">
+        <v>-0.001035946775090658</v>
+      </c>
+      <c r="I67">
+        <v>0.03152961908404789</v>
+      </c>
+      <c r="J67">
+        <v>-0.01771630240656361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.01445151565735047</v>
+        <v>-0.02838270575925422</v>
       </c>
       <c r="C68">
-        <v>0.2483202945751843</v>
+        <v>0.2372244156118498</v>
       </c>
       <c r="D68">
-        <v>-0.01609580368263449</v>
+        <v>-0.0002792582271135878</v>
       </c>
       <c r="E68">
-        <v>0.03565106920719613</v>
+        <v>-0.04069771728554552</v>
       </c>
       <c r="F68">
-        <v>0.01853936496506852</v>
+        <v>0.003623111093091786</v>
       </c>
       <c r="G68">
-        <v>-0.03203961964077464</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01274797709483055</v>
+      </c>
+      <c r="H68">
+        <v>-0.04244758373571491</v>
+      </c>
+      <c r="I68">
+        <v>-0.1572912431879199</v>
+      </c>
+      <c r="J68">
+        <v>0.07648376801330711</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06371480021332969</v>
+        <v>-0.06773664908557056</v>
       </c>
       <c r="C69">
-        <v>-0.005586936223858458</v>
+        <v>-0.01164966142336032</v>
       </c>
       <c r="D69">
-        <v>-0.02502095229794619</v>
+        <v>0.02675561668091665</v>
       </c>
       <c r="E69">
-        <v>-0.0144724690988525</v>
+        <v>-0.0121488518646365</v>
       </c>
       <c r="F69">
-        <v>0.006091753218153023</v>
+        <v>-0.006892989315993457</v>
       </c>
       <c r="G69">
-        <v>0.0004019233539880577</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01841820475012301</v>
+      </c>
+      <c r="H69">
+        <v>0.04993370692843822</v>
+      </c>
+      <c r="I69">
+        <v>-0.001444522272878217</v>
+      </c>
+      <c r="J69">
+        <v>0.006387166458397967</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.0111667044089598</v>
+        <v>-0.03269011608478615</v>
       </c>
       <c r="C71">
-        <v>0.2211420152617779</v>
+        <v>0.2262837631645217</v>
       </c>
       <c r="D71">
-        <v>-0.02316923102294555</v>
+        <v>-0.02073146890037444</v>
       </c>
       <c r="E71">
-        <v>0.05201058381670449</v>
+        <v>-0.05866085140723214</v>
       </c>
       <c r="F71">
-        <v>0.01690242447533001</v>
+        <v>-0.02345332851102527</v>
       </c>
       <c r="G71">
-        <v>-0.1455637286876658</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.003218156949301517</v>
+      </c>
+      <c r="H71">
+        <v>-0.06105051804364708</v>
+      </c>
+      <c r="I71">
+        <v>-0.1594272492035048</v>
+      </c>
+      <c r="J71">
+        <v>0.01465661558042755</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1010760140267822</v>
+        <v>-0.111501724799675</v>
       </c>
       <c r="C72">
-        <v>0.02489304839539959</v>
+        <v>0.009128980418851622</v>
       </c>
       <c r="D72">
-        <v>-0.07485368424443486</v>
+        <v>0.06003032301847673</v>
       </c>
       <c r="E72">
-        <v>0.03373587717980615</v>
+        <v>-0.08484068094056331</v>
       </c>
       <c r="F72">
-        <v>0.01232402907619292</v>
+        <v>0.01590741715958369</v>
       </c>
       <c r="G72">
-        <v>0.01782049822206156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03380027584099728</v>
+      </c>
+      <c r="H72">
+        <v>0.0005950399253600259</v>
+      </c>
+      <c r="I72">
+        <v>-0.004023328155745133</v>
+      </c>
+      <c r="J72">
+        <v>-0.02715636774051114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2621750265716711</v>
+        <v>-0.2722535929913351</v>
       </c>
       <c r="C73">
-        <v>0.2191059545338486</v>
+        <v>0.1481525014703471</v>
       </c>
       <c r="D73">
-        <v>-0.1414825441740966</v>
+        <v>-0.009537025502682627</v>
       </c>
       <c r="E73">
-        <v>0.2355259180579459</v>
+        <v>-0.3187409190449262</v>
       </c>
       <c r="F73">
-        <v>0.04672706640151948</v>
+        <v>-0.07753211664704297</v>
       </c>
       <c r="G73">
-        <v>-0.36951431478798</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1389305932082763</v>
+      </c>
+      <c r="H73">
+        <v>-0.409319694823951</v>
+      </c>
+      <c r="I73">
+        <v>0.269923320379817</v>
+      </c>
+      <c r="J73">
+        <v>-0.3000644155618674</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1533166539702541</v>
+        <v>-0.1529826889417737</v>
       </c>
       <c r="C74">
-        <v>0.01732238655025305</v>
+        <v>-0.008270937139889764</v>
       </c>
       <c r="D74">
-        <v>-0.04155284509320592</v>
+        <v>0.04678463227577319</v>
       </c>
       <c r="E74">
-        <v>-0.01387827424771833</v>
+        <v>0.02559886100476822</v>
       </c>
       <c r="F74">
-        <v>0.04712732936111132</v>
+        <v>0.001438089927018285</v>
       </c>
       <c r="G74">
-        <v>0.004594143733458018</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01835037033830361</v>
+      </c>
+      <c r="H74">
+        <v>-0.02362762524223879</v>
+      </c>
+      <c r="I74">
+        <v>0.05747438219187596</v>
+      </c>
+      <c r="J74">
+        <v>0.08439819494488077</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2371565494631847</v>
+        <v>-0.2460353363985374</v>
       </c>
       <c r="C75">
-        <v>0.02760128331693161</v>
+        <v>-0.01246744386884052</v>
       </c>
       <c r="D75">
-        <v>0.002465353564965882</v>
+        <v>0.1036808907095357</v>
       </c>
       <c r="E75">
-        <v>-0.1071451581640521</v>
+        <v>0.1116123493955573</v>
       </c>
       <c r="F75">
-        <v>0.02265873918815588</v>
+        <v>-0.02049246168821192</v>
       </c>
       <c r="G75">
-        <v>0.0780317837001928</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.02277743263964696</v>
+      </c>
+      <c r="H75">
+        <v>-0.009472843255577162</v>
+      </c>
+      <c r="I75">
+        <v>0.04148342855139291</v>
+      </c>
+      <c r="J75">
+        <v>0.1856116454045388</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.235544960578785</v>
+        <v>-0.2601668626226147</v>
       </c>
       <c r="C76">
-        <v>0.01969793737174426</v>
+        <v>-0.004346230772703692</v>
       </c>
       <c r="D76">
-        <v>-0.04589708323575546</v>
+        <v>0.1223616428628679</v>
       </c>
       <c r="E76">
-        <v>-0.104453720351631</v>
+        <v>0.1209182111060443</v>
       </c>
       <c r="F76">
-        <v>0.03412421076225237</v>
+        <v>0.01158650242548306</v>
       </c>
       <c r="G76">
-        <v>0.03617840050694423</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.01572667852733244</v>
+      </c>
+      <c r="H76">
+        <v>-0.005041373680759168</v>
+      </c>
+      <c r="I76">
+        <v>0.09512149421439346</v>
+      </c>
+      <c r="J76">
+        <v>0.1672930229669667</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.116654123131654</v>
+        <v>-0.1249537444266372</v>
       </c>
       <c r="C77">
-        <v>-0.01377595830696146</v>
+        <v>-0.04562778937275695</v>
       </c>
       <c r="D77">
-        <v>-0.06917772546365263</v>
+        <v>-0.05390086261460821</v>
       </c>
       <c r="E77">
-        <v>0.1774575476836133</v>
+        <v>-0.1843357288112378</v>
       </c>
       <c r="F77">
-        <v>0.01786323577093321</v>
+        <v>0.05527858839889474</v>
       </c>
       <c r="G77">
-        <v>0.09873283848493912</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02152587686387113</v>
+      </c>
+      <c r="H77">
+        <v>0.1453594067725517</v>
+      </c>
+      <c r="I77">
+        <v>-0.1609603024477912</v>
+      </c>
+      <c r="J77">
+        <v>0.09467377781736631</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09447992205735417</v>
+        <v>-0.08482009035917575</v>
       </c>
       <c r="C78">
-        <v>-0.02677207436034162</v>
+        <v>-0.05316588284597252</v>
       </c>
       <c r="D78">
-        <v>-0.02757974945528914</v>
+        <v>-0.0004232766772380356</v>
       </c>
       <c r="E78">
-        <v>0.09148518852286711</v>
+        <v>-0.08584969450714704</v>
       </c>
       <c r="F78">
-        <v>-0.0006165070913851765</v>
+        <v>0.0368690460956485</v>
       </c>
       <c r="G78">
-        <v>-0.02615800868291122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01337253046537947</v>
+      </c>
+      <c r="H78">
+        <v>0.01547599281676081</v>
+      </c>
+      <c r="I78">
+        <v>-0.02426508314016465</v>
+      </c>
+      <c r="J78">
+        <v>0.0214363472580685</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.07698284330394831</v>
+        <v>-0.08917352086119887</v>
       </c>
       <c r="C80">
-        <v>0.003041082729110862</v>
+        <v>0.05472532414147471</v>
       </c>
       <c r="D80">
-        <v>0.03745086904909207</v>
+        <v>-0.1643105774377477</v>
       </c>
       <c r="E80">
-        <v>-0.009436987694863192</v>
+        <v>0.1478199218138236</v>
       </c>
       <c r="F80">
-        <v>-0.0008095209053744872</v>
+        <v>0.942310503049049</v>
       </c>
       <c r="G80">
-        <v>0.3414836757806584</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.02049148252345019</v>
+      </c>
+      <c r="H80">
+        <v>-0.1428660143766359</v>
+      </c>
+      <c r="I80">
+        <v>0.02522748651618641</v>
+      </c>
+      <c r="J80">
+        <v>-0.1109887402888294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1682600062024221</v>
+        <v>-0.1756704734084066</v>
       </c>
       <c r="C81">
-        <v>0.01786737474686785</v>
+        <v>-0.003513097749308342</v>
       </c>
       <c r="D81">
-        <v>0.01157001384580273</v>
+        <v>0.08863509761803892</v>
       </c>
       <c r="E81">
-        <v>-0.1240490178648199</v>
+        <v>0.1352474970698628</v>
       </c>
       <c r="F81">
-        <v>0.05028558410696512</v>
+        <v>-0.02089388479300921</v>
       </c>
       <c r="G81">
-        <v>0.05387055958206453</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.01399943613337263</v>
+      </c>
+      <c r="H81">
+        <v>-0.007233046659000437</v>
+      </c>
+      <c r="I81">
+        <v>0.0468261217155421</v>
+      </c>
+      <c r="J81">
+        <v>0.1356972643128929</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.0748992937594216</v>
+        <v>-0.06446561988806938</v>
       </c>
       <c r="C83">
-        <v>-0.02329369754291869</v>
+        <v>-0.03646894483222133</v>
       </c>
       <c r="D83">
-        <v>0.03129606898182887</v>
+        <v>-0.04562865162048357</v>
       </c>
       <c r="E83">
-        <v>0.1041245406073668</v>
+        <v>-0.07056918841111631</v>
       </c>
       <c r="F83">
-        <v>-0.0702830748009054</v>
+        <v>-0.008130727650765543</v>
       </c>
       <c r="G83">
-        <v>0.05434779787418578</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04771242536430833</v>
+      </c>
+      <c r="H83">
+        <v>0.04653037548743025</v>
+      </c>
+      <c r="I83">
+        <v>0.003640541431778294</v>
+      </c>
+      <c r="J83">
+        <v>0.0866955317521287</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2490638903896277</v>
+        <v>-0.2585885188779893</v>
       </c>
       <c r="C85">
-        <v>-0.03385060089756449</v>
+        <v>-0.05003700719943975</v>
       </c>
       <c r="D85">
-        <v>0.02108628986726331</v>
+        <v>0.08890809895836176</v>
       </c>
       <c r="E85">
-        <v>-0.1121039845644531</v>
+        <v>0.1403090265138081</v>
       </c>
       <c r="F85">
-        <v>0.007673821400081889</v>
+        <v>0.0143464851476096</v>
       </c>
       <c r="G85">
-        <v>0.1121657951623765</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.02168766412182765</v>
+      </c>
+      <c r="H85">
+        <v>0.02731615142929365</v>
+      </c>
+      <c r="I85">
+        <v>0.06709376231031086</v>
+      </c>
+      <c r="J85">
+        <v>0.2044979055452008</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04520699004607034</v>
+        <v>-0.02737533594411088</v>
       </c>
       <c r="C86">
-        <v>-0.03049318512992451</v>
+        <v>-0.04515865032934648</v>
       </c>
       <c r="D86">
-        <v>-0.03988287485936406</v>
+        <v>0.0060906613355982</v>
       </c>
       <c r="E86">
-        <v>0.04656096715906087</v>
+        <v>-0.06378204485122062</v>
       </c>
       <c r="F86">
-        <v>0.006457061702777545</v>
+        <v>0.03150663672132632</v>
       </c>
       <c r="G86">
-        <v>0.0005083641485345771</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.007987584818724599</v>
+      </c>
+      <c r="H86">
+        <v>0.02893848498579177</v>
+      </c>
+      <c r="I86">
+        <v>-0.07894339821338756</v>
+      </c>
+      <c r="J86">
+        <v>-0.01264823788471594</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.03180033151549858</v>
+        <v>-0.03900833307992859</v>
       </c>
       <c r="C87">
-        <v>0.05214997143861365</v>
+        <v>0.02349434907618904</v>
       </c>
       <c r="D87">
-        <v>-0.03931881117784681</v>
+        <v>0.001882177193604782</v>
       </c>
       <c r="E87">
-        <v>0.04504850445299435</v>
+        <v>-0.08356551907130121</v>
       </c>
       <c r="F87">
-        <v>-0.01404558582489784</v>
+        <v>0.01598109944127523</v>
       </c>
       <c r="G87">
-        <v>-0.1683922868022884</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.006338752696075407</v>
+      </c>
+      <c r="H87">
+        <v>-0.01879304653523944</v>
+      </c>
+      <c r="I87">
+        <v>-0.02718554346751872</v>
+      </c>
+      <c r="J87">
+        <v>-0.1113352840092073</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03039004035900176</v>
+        <v>-0.01943957938307605</v>
       </c>
       <c r="C88">
-        <v>-0.02463884988398018</v>
+        <v>-0.01633274770065422</v>
       </c>
       <c r="D88">
-        <v>-0.01433065946873407</v>
+        <v>0.0115202230818635</v>
       </c>
       <c r="E88">
-        <v>0.003923723349013714</v>
+        <v>-0.009301124791852243</v>
       </c>
       <c r="F88">
-        <v>0.004449889802000098</v>
+        <v>0.02114498335303827</v>
       </c>
       <c r="G88">
-        <v>0.04787209805030799</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.0287083680814486</v>
+      </c>
+      <c r="H88">
+        <v>0.04854907235121007</v>
+      </c>
+      <c r="I88">
+        <v>0.003815088442845721</v>
+      </c>
+      <c r="J88">
+        <v>-0.02160947398880762</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.02936695554987187</v>
+        <v>-0.04348839157414037</v>
       </c>
       <c r="C89">
-        <v>0.437495517972844</v>
+        <v>0.4007442455189262</v>
       </c>
       <c r="D89">
-        <v>0.07373706717611195</v>
+        <v>-0.05546311088284774</v>
       </c>
       <c r="E89">
-        <v>0.04359533157288679</v>
+        <v>-0.05117560823353776</v>
       </c>
       <c r="F89">
-        <v>-0.04486978482503536</v>
+        <v>-0.0344579490846734</v>
       </c>
       <c r="G89">
-        <v>0.0363051965176057</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.07311116052996405</v>
+      </c>
+      <c r="H89">
+        <v>0.0115809821813848</v>
+      </c>
+      <c r="I89">
+        <v>-0.2593960214876449</v>
+      </c>
+      <c r="J89">
+        <v>0.1513050507137075</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.03432854764661698</v>
+        <v>-0.02242918287406677</v>
       </c>
       <c r="C90">
-        <v>0.3037598704314747</v>
+        <v>0.3267201068581227</v>
       </c>
       <c r="D90">
-        <v>-0.008376953241071829</v>
+        <v>-0.03099134652634481</v>
       </c>
       <c r="E90">
-        <v>0.04044535006266123</v>
+        <v>-0.03892370412387419</v>
       </c>
       <c r="F90">
-        <v>0.008614642183152801</v>
+        <v>0.007980135914471123</v>
       </c>
       <c r="G90">
-        <v>-0.0624881462891498</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01089251390334123</v>
+      </c>
+      <c r="H90">
+        <v>-0.04767621778472803</v>
+      </c>
+      <c r="I90">
+        <v>-0.1790150373790002</v>
+      </c>
+      <c r="J90">
+        <v>0.1064885965041325</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3237411754127404</v>
+        <v>-0.3268371067895533</v>
       </c>
       <c r="C91">
-        <v>0.01355756021168017</v>
+        <v>-0.02064779445593937</v>
       </c>
       <c r="D91">
-        <v>0.08091419614193607</v>
+        <v>0.1047179962346269</v>
       </c>
       <c r="E91">
-        <v>-0.232447603556138</v>
+        <v>0.2581906583441222</v>
       </c>
       <c r="F91">
-        <v>0.07016283423695165</v>
+        <v>-0.02797575867218258</v>
       </c>
       <c r="G91">
-        <v>0.2714470142363975</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02337643506585133</v>
+      </c>
+      <c r="H91">
+        <v>0.007649680945692667</v>
+      </c>
+      <c r="I91">
+        <v>0.119853760724309</v>
+      </c>
+      <c r="J91">
+        <v>0.3635575873502755</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.03660989502708748</v>
+        <v>-0.06919744774404561</v>
       </c>
       <c r="C92">
-        <v>0.4592136213483677</v>
+        <v>0.4806597774251057</v>
       </c>
       <c r="D92">
-        <v>0.216881445735985</v>
+        <v>-0.07694671237244395</v>
       </c>
       <c r="E92">
-        <v>-0.02669540448064618</v>
+        <v>0.1379094777270951</v>
       </c>
       <c r="F92">
-        <v>0.04413314741261318</v>
+        <v>-0.01507407929680238</v>
       </c>
       <c r="G92">
-        <v>0.4734084299966605</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0459143781162821</v>
+      </c>
+      <c r="H92">
+        <v>0.584579113757136</v>
+      </c>
+      <c r="I92">
+        <v>0.5282091080406158</v>
+      </c>
+      <c r="J92">
+        <v>-0.2586472199227908</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.03730768519156227</v>
+        <v>-0.02805033604010882</v>
       </c>
       <c r="C93">
-        <v>0.3714963421199299</v>
+        <v>0.4057275782142155</v>
       </c>
       <c r="D93">
-        <v>0.08045977755859025</v>
+        <v>-0.06275196141360821</v>
       </c>
       <c r="E93">
-        <v>0.00506755890215789</v>
+        <v>0.01942405557027839</v>
       </c>
       <c r="F93">
-        <v>-0.0006808382124061772</v>
+        <v>-0.01173183861373508</v>
       </c>
       <c r="G93">
-        <v>0.0390622187642659</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03972497806961768</v>
+      </c>
+      <c r="H93">
+        <v>-0.05512505864638789</v>
+      </c>
+      <c r="I93">
+        <v>-0.1727598558711985</v>
+      </c>
+      <c r="J93">
+        <v>0.149285985464365</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.3252395712060813</v>
+        <v>-0.3334204819873595</v>
       </c>
       <c r="C94">
-        <v>0.01250474758893526</v>
+        <v>-0.01616537139746163</v>
       </c>
       <c r="D94">
-        <v>0.2886073479107113</v>
+        <v>0.1656481506362305</v>
       </c>
       <c r="E94">
-        <v>-0.479957178059908</v>
+        <v>0.4234633040786946</v>
       </c>
       <c r="F94">
-        <v>0.3436432369861834</v>
+        <v>-0.1040723019395335</v>
       </c>
       <c r="G94">
-        <v>-0.310713533001777</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1908538230814733</v>
+      </c>
+      <c r="H94">
+        <v>0.01231790915952004</v>
+      </c>
+      <c r="I94">
+        <v>-0.4680325278899825</v>
+      </c>
+      <c r="J94">
+        <v>-0.5558313946406486</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1879801580207355</v>
+        <v>-0.1423846878367325</v>
       </c>
       <c r="C95">
-        <v>0.04923691755304085</v>
+        <v>-0.05207732643112809</v>
       </c>
       <c r="D95">
-        <v>0.02737683908713161</v>
+        <v>0.03322564458897643</v>
       </c>
       <c r="E95">
-        <v>-0.2527351559042205</v>
+        <v>0.005913155797736917</v>
       </c>
       <c r="F95">
-        <v>-0.9024840879213692</v>
+        <v>-0.06467231728796467</v>
       </c>
       <c r="G95">
-        <v>-0.06213124583815925</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9322610792507713</v>
+      </c>
+      <c r="H95">
+        <v>-0.0854546897431156</v>
+      </c>
+      <c r="I95">
+        <v>-0.04039364129760169</v>
+      </c>
+      <c r="J95">
+        <v>-0.2144373287527466</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2018108369120836</v>
+        <v>-0.2048525923768114</v>
       </c>
       <c r="C98">
-        <v>0.1412451474979707</v>
+        <v>0.08999288567300572</v>
       </c>
       <c r="D98">
-        <v>-0.05325423630804696</v>
+        <v>-0.0126762370214784</v>
       </c>
       <c r="E98">
-        <v>0.09937346961318178</v>
+        <v>-0.1676072645794563</v>
       </c>
       <c r="F98">
-        <v>0.0003822162752284976</v>
+        <v>-0.07574785311349722</v>
       </c>
       <c r="G98">
-        <v>-0.227111500456314</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.06260629849320729</v>
+      </c>
+      <c r="H98">
+        <v>-0.2961994053596503</v>
+      </c>
+      <c r="I98">
+        <v>0.2102003032734751</v>
+      </c>
+      <c r="J98">
+        <v>-0.09519863723156101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.01820905133151364</v>
+        <v>-0.01263802244888029</v>
       </c>
       <c r="C101">
-        <v>-0.02012245254543552</v>
+        <v>-0.03294787276521104</v>
       </c>
       <c r="D101">
-        <v>-0.03448605941444698</v>
+        <v>0.02207633042136686</v>
       </c>
       <c r="E101">
-        <v>0.02753471937352827</v>
+        <v>-0.06133444865574995</v>
       </c>
       <c r="F101">
-        <v>-0.002192918963352336</v>
+        <v>0.03034952967640084</v>
       </c>
       <c r="G101">
-        <v>0.03433744990789491</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.001571881638898628</v>
+      </c>
+      <c r="H101">
+        <v>0.1184925829535047</v>
+      </c>
+      <c r="I101">
+        <v>-0.01066209326115813</v>
+      </c>
+      <c r="J101">
+        <v>-0.01744341112138514</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1245617417296027</v>
+        <v>-0.1221873488642695</v>
       </c>
       <c r="C102">
-        <v>0.01093424559155642</v>
+        <v>-0.02025327992068529</v>
       </c>
       <c r="D102">
-        <v>-0.003473599356156189</v>
+        <v>0.05428810521365682</v>
       </c>
       <c r="E102">
-        <v>-0.08292669552463153</v>
+        <v>0.08225868393538539</v>
       </c>
       <c r="F102">
-        <v>-0.02428214891482234</v>
+        <v>0.003722694030528829</v>
       </c>
       <c r="G102">
-        <v>0.01861573082962778</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.04134550407207132</v>
+      </c>
+      <c r="H102">
+        <v>-0.004413699208266887</v>
+      </c>
+      <c r="I102">
+        <v>-0.006661079548329168</v>
+      </c>
+      <c r="J102">
+        <v>0.06691507571174753</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01499002879668612</v>
+        <v>-0.02271162526960077</v>
       </c>
       <c r="C103">
-        <v>-0.003308672231844612</v>
+        <v>-0.004051981733967557</v>
       </c>
       <c r="D103">
-        <v>0.004053145803610495</v>
+        <v>0.0146796583039132</v>
       </c>
       <c r="E103">
-        <v>-0.02802606569325644</v>
+        <v>0.01241878797589102</v>
       </c>
       <c r="F103">
-        <v>0.009240588534004902</v>
+        <v>0.0028700537669277</v>
       </c>
       <c r="G103">
-        <v>-0.02028204732315878</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01548417958221751</v>
+      </c>
+      <c r="H103">
+        <v>0.003069117231608613</v>
+      </c>
+      <c r="I103">
+        <v>-0.03239273991591388</v>
+      </c>
+      <c r="J103">
+        <v>0.007461869702939058</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
